--- a/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species.xlsx
+++ b/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Article\Articles_in_progress\Chernetsov_Geographical_pattern\R_calc_Chernetsov_Geographic_pattern\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B0A21D-0523-4A51-8879-DE545E195D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D226961E-55E9-401A-A8C2-35C9A743F3E7}"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,17 +18,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Species_code</t>
   </si>
@@ -51,6 +41,9 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Sci_Name</t>
+  </si>
+  <si>
     <t>Phyl_trol</t>
   </si>
   <si>
@@ -63,6 +56,9 @@
     <t>Phyl</t>
   </si>
   <si>
+    <t>Phylloscopus trochiloides</t>
+  </si>
+  <si>
     <t>Phyl_coll</t>
   </si>
   <si>
@@ -72,6 +68,9 @@
     <t>Сев.Африка, Ближн. Восток, Аравийский полуостров, Иран</t>
   </si>
   <si>
+    <t>Phylloscopus collybita</t>
+  </si>
+  <si>
     <t>Phyl_troc</t>
   </si>
   <si>
@@ -81,6 +80,9 @@
     <t>Африка</t>
   </si>
   <si>
+    <t>Phylloscopus trochilus</t>
+  </si>
+  <si>
     <t>Phyl_inor</t>
   </si>
   <si>
@@ -90,12 +92,18 @@
     <t>ЮВ Азия</t>
   </si>
   <si>
+    <t>Phylloscopus inornatus</t>
+  </si>
+  <si>
     <t>Phyl_sibi</t>
   </si>
   <si>
     <t>Пеночка-трещотка</t>
   </si>
   <si>
+    <t>Phylloscopus sibilatrix</t>
+  </si>
+  <si>
     <t>Acro_scir</t>
   </si>
   <si>
@@ -105,6 +113,9 @@
     <t>Acro</t>
   </si>
   <si>
+    <t>Acrocephalus scirpaceus</t>
+  </si>
+  <si>
     <t>Acro_dume</t>
   </si>
   <si>
@@ -114,30 +125,48 @@
     <t>Индия</t>
   </si>
   <si>
+    <t>Acrocephalus dumetorum</t>
+  </si>
+  <si>
     <t>Acro_agri</t>
   </si>
   <si>
     <t>Индийская камышевка </t>
   </si>
   <si>
+    <t>Acrocephalus agricola</t>
+  </si>
+  <si>
     <t>Acro_palu</t>
   </si>
   <si>
     <t>Болотная камышевка</t>
   </si>
   <si>
+    <t>Acrocephalus palustris</t>
+  </si>
+  <si>
     <t>Acro_scho</t>
   </si>
   <si>
     <t>Камышевка-барсучок</t>
   </si>
   <si>
+    <t>Acroloscopus schoenobaenus</t>
+  </si>
+  <si>
     <t>Hipp_cali</t>
   </si>
   <si>
     <t>Северная бормотушка</t>
   </si>
   <si>
+    <t>Iduna caligata</t>
+  </si>
+  <si>
+    <t>раньше была Hippolais caligata</t>
+  </si>
+  <si>
     <t>Fice_parv</t>
   </si>
   <si>
@@ -147,31 +176,42 @@
     <t>Fice</t>
   </si>
   <si>
+    <t>Ficedula parva</t>
+  </si>
+  <si>
     <t>Fice_hypo</t>
   </si>
   <si>
     <t>Мухоловка-пеструшка</t>
   </si>
   <si>
+    <t>Ficedula hypoleuca</t>
+  </si>
+  <si>
     <t>Musc_stri</t>
   </si>
   <si>
     <t>Серая мухоловка</t>
   </si>
   <si>
-    <t>Sci_Name</t>
+    <t>Muscicapa striata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +220,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -188,11 +227,161 @@
       <sz val="11.25"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,24 +390,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,9 +601,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -237,17 +854,61 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,7 +957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -329,26 +990,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -381,23 +1025,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -539,158 +1166,153 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E736727-F5E2-4ACB-B3D6-53331F6BCF27}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="5" max="5" width="30.4259259259259" customWidth="1"/>
     <col min="257" max="257" width="13" customWidth="1"/>
-    <col min="258" max="258" width="28.140625" customWidth="1"/>
+    <col min="258" max="258" width="28.1388888888889" customWidth="1"/>
     <col min="513" max="513" width="13" customWidth="1"/>
-    <col min="514" max="514" width="28.140625" customWidth="1"/>
+    <col min="514" max="514" width="28.1388888888889" customWidth="1"/>
     <col min="769" max="769" width="13" customWidth="1"/>
-    <col min="770" max="770" width="28.140625" customWidth="1"/>
+    <col min="770" max="770" width="28.1388888888889" customWidth="1"/>
     <col min="1025" max="1025" width="13" customWidth="1"/>
-    <col min="1026" max="1026" width="28.140625" customWidth="1"/>
+    <col min="1026" max="1026" width="28.1388888888889" customWidth="1"/>
     <col min="1281" max="1281" width="13" customWidth="1"/>
-    <col min="1282" max="1282" width="28.140625" customWidth="1"/>
+    <col min="1282" max="1282" width="28.1388888888889" customWidth="1"/>
     <col min="1537" max="1537" width="13" customWidth="1"/>
-    <col min="1538" max="1538" width="28.140625" customWidth="1"/>
+    <col min="1538" max="1538" width="28.1388888888889" customWidth="1"/>
     <col min="1793" max="1793" width="13" customWidth="1"/>
-    <col min="1794" max="1794" width="28.140625" customWidth="1"/>
+    <col min="1794" max="1794" width="28.1388888888889" customWidth="1"/>
     <col min="2049" max="2049" width="13" customWidth="1"/>
-    <col min="2050" max="2050" width="28.140625" customWidth="1"/>
+    <col min="2050" max="2050" width="28.1388888888889" customWidth="1"/>
     <col min="2305" max="2305" width="13" customWidth="1"/>
-    <col min="2306" max="2306" width="28.140625" customWidth="1"/>
+    <col min="2306" max="2306" width="28.1388888888889" customWidth="1"/>
     <col min="2561" max="2561" width="13" customWidth="1"/>
-    <col min="2562" max="2562" width="28.140625" customWidth="1"/>
+    <col min="2562" max="2562" width="28.1388888888889" customWidth="1"/>
     <col min="2817" max="2817" width="13" customWidth="1"/>
-    <col min="2818" max="2818" width="28.140625" customWidth="1"/>
+    <col min="2818" max="2818" width="28.1388888888889" customWidth="1"/>
     <col min="3073" max="3073" width="13" customWidth="1"/>
-    <col min="3074" max="3074" width="28.140625" customWidth="1"/>
+    <col min="3074" max="3074" width="28.1388888888889" customWidth="1"/>
     <col min="3329" max="3329" width="13" customWidth="1"/>
-    <col min="3330" max="3330" width="28.140625" customWidth="1"/>
+    <col min="3330" max="3330" width="28.1388888888889" customWidth="1"/>
     <col min="3585" max="3585" width="13" customWidth="1"/>
-    <col min="3586" max="3586" width="28.140625" customWidth="1"/>
+    <col min="3586" max="3586" width="28.1388888888889" customWidth="1"/>
     <col min="3841" max="3841" width="13" customWidth="1"/>
-    <col min="3842" max="3842" width="28.140625" customWidth="1"/>
+    <col min="3842" max="3842" width="28.1388888888889" customWidth="1"/>
     <col min="4097" max="4097" width="13" customWidth="1"/>
-    <col min="4098" max="4098" width="28.140625" customWidth="1"/>
+    <col min="4098" max="4098" width="28.1388888888889" customWidth="1"/>
     <col min="4353" max="4353" width="13" customWidth="1"/>
-    <col min="4354" max="4354" width="28.140625" customWidth="1"/>
+    <col min="4354" max="4354" width="28.1388888888889" customWidth="1"/>
     <col min="4609" max="4609" width="13" customWidth="1"/>
-    <col min="4610" max="4610" width="28.140625" customWidth="1"/>
+    <col min="4610" max="4610" width="28.1388888888889" customWidth="1"/>
     <col min="4865" max="4865" width="13" customWidth="1"/>
-    <col min="4866" max="4866" width="28.140625" customWidth="1"/>
+    <col min="4866" max="4866" width="28.1388888888889" customWidth="1"/>
     <col min="5121" max="5121" width="13" customWidth="1"/>
-    <col min="5122" max="5122" width="28.140625" customWidth="1"/>
+    <col min="5122" max="5122" width="28.1388888888889" customWidth="1"/>
     <col min="5377" max="5377" width="13" customWidth="1"/>
-    <col min="5378" max="5378" width="28.140625" customWidth="1"/>
+    <col min="5378" max="5378" width="28.1388888888889" customWidth="1"/>
     <col min="5633" max="5633" width="13" customWidth="1"/>
-    <col min="5634" max="5634" width="28.140625" customWidth="1"/>
+    <col min="5634" max="5634" width="28.1388888888889" customWidth="1"/>
     <col min="5889" max="5889" width="13" customWidth="1"/>
-    <col min="5890" max="5890" width="28.140625" customWidth="1"/>
+    <col min="5890" max="5890" width="28.1388888888889" customWidth="1"/>
     <col min="6145" max="6145" width="13" customWidth="1"/>
-    <col min="6146" max="6146" width="28.140625" customWidth="1"/>
+    <col min="6146" max="6146" width="28.1388888888889" customWidth="1"/>
     <col min="6401" max="6401" width="13" customWidth="1"/>
-    <col min="6402" max="6402" width="28.140625" customWidth="1"/>
+    <col min="6402" max="6402" width="28.1388888888889" customWidth="1"/>
     <col min="6657" max="6657" width="13" customWidth="1"/>
-    <col min="6658" max="6658" width="28.140625" customWidth="1"/>
+    <col min="6658" max="6658" width="28.1388888888889" customWidth="1"/>
     <col min="6913" max="6913" width="13" customWidth="1"/>
-    <col min="6914" max="6914" width="28.140625" customWidth="1"/>
+    <col min="6914" max="6914" width="28.1388888888889" customWidth="1"/>
     <col min="7169" max="7169" width="13" customWidth="1"/>
-    <col min="7170" max="7170" width="28.140625" customWidth="1"/>
+    <col min="7170" max="7170" width="28.1388888888889" customWidth="1"/>
     <col min="7425" max="7425" width="13" customWidth="1"/>
-    <col min="7426" max="7426" width="28.140625" customWidth="1"/>
+    <col min="7426" max="7426" width="28.1388888888889" customWidth="1"/>
     <col min="7681" max="7681" width="13" customWidth="1"/>
-    <col min="7682" max="7682" width="28.140625" customWidth="1"/>
+    <col min="7682" max="7682" width="28.1388888888889" customWidth="1"/>
     <col min="7937" max="7937" width="13" customWidth="1"/>
-    <col min="7938" max="7938" width="28.140625" customWidth="1"/>
+    <col min="7938" max="7938" width="28.1388888888889" customWidth="1"/>
     <col min="8193" max="8193" width="13" customWidth="1"/>
-    <col min="8194" max="8194" width="28.140625" customWidth="1"/>
+    <col min="8194" max="8194" width="28.1388888888889" customWidth="1"/>
     <col min="8449" max="8449" width="13" customWidth="1"/>
-    <col min="8450" max="8450" width="28.140625" customWidth="1"/>
+    <col min="8450" max="8450" width="28.1388888888889" customWidth="1"/>
     <col min="8705" max="8705" width="13" customWidth="1"/>
-    <col min="8706" max="8706" width="28.140625" customWidth="1"/>
+    <col min="8706" max="8706" width="28.1388888888889" customWidth="1"/>
     <col min="8961" max="8961" width="13" customWidth="1"/>
-    <col min="8962" max="8962" width="28.140625" customWidth="1"/>
+    <col min="8962" max="8962" width="28.1388888888889" customWidth="1"/>
     <col min="9217" max="9217" width="13" customWidth="1"/>
-    <col min="9218" max="9218" width="28.140625" customWidth="1"/>
+    <col min="9218" max="9218" width="28.1388888888889" customWidth="1"/>
     <col min="9473" max="9473" width="13" customWidth="1"/>
-    <col min="9474" max="9474" width="28.140625" customWidth="1"/>
+    <col min="9474" max="9474" width="28.1388888888889" customWidth="1"/>
     <col min="9729" max="9729" width="13" customWidth="1"/>
-    <col min="9730" max="9730" width="28.140625" customWidth="1"/>
+    <col min="9730" max="9730" width="28.1388888888889" customWidth="1"/>
     <col min="9985" max="9985" width="13" customWidth="1"/>
-    <col min="9986" max="9986" width="28.140625" customWidth="1"/>
+    <col min="9986" max="9986" width="28.1388888888889" customWidth="1"/>
     <col min="10241" max="10241" width="13" customWidth="1"/>
-    <col min="10242" max="10242" width="28.140625" customWidth="1"/>
+    <col min="10242" max="10242" width="28.1388888888889" customWidth="1"/>
     <col min="10497" max="10497" width="13" customWidth="1"/>
-    <col min="10498" max="10498" width="28.140625" customWidth="1"/>
+    <col min="10498" max="10498" width="28.1388888888889" customWidth="1"/>
     <col min="10753" max="10753" width="13" customWidth="1"/>
-    <col min="10754" max="10754" width="28.140625" customWidth="1"/>
+    <col min="10754" max="10754" width="28.1388888888889" customWidth="1"/>
     <col min="11009" max="11009" width="13" customWidth="1"/>
-    <col min="11010" max="11010" width="28.140625" customWidth="1"/>
+    <col min="11010" max="11010" width="28.1388888888889" customWidth="1"/>
     <col min="11265" max="11265" width="13" customWidth="1"/>
-    <col min="11266" max="11266" width="28.140625" customWidth="1"/>
+    <col min="11266" max="11266" width="28.1388888888889" customWidth="1"/>
     <col min="11521" max="11521" width="13" customWidth="1"/>
-    <col min="11522" max="11522" width="28.140625" customWidth="1"/>
+    <col min="11522" max="11522" width="28.1388888888889" customWidth="1"/>
     <col min="11777" max="11777" width="13" customWidth="1"/>
-    <col min="11778" max="11778" width="28.140625" customWidth="1"/>
+    <col min="11778" max="11778" width="28.1388888888889" customWidth="1"/>
     <col min="12033" max="12033" width="13" customWidth="1"/>
-    <col min="12034" max="12034" width="28.140625" customWidth="1"/>
+    <col min="12034" max="12034" width="28.1388888888889" customWidth="1"/>
     <col min="12289" max="12289" width="13" customWidth="1"/>
-    <col min="12290" max="12290" width="28.140625" customWidth="1"/>
+    <col min="12290" max="12290" width="28.1388888888889" customWidth="1"/>
     <col min="12545" max="12545" width="13" customWidth="1"/>
-    <col min="12546" max="12546" width="28.140625" customWidth="1"/>
+    <col min="12546" max="12546" width="28.1388888888889" customWidth="1"/>
     <col min="12801" max="12801" width="13" customWidth="1"/>
-    <col min="12802" max="12802" width="28.140625" customWidth="1"/>
+    <col min="12802" max="12802" width="28.1388888888889" customWidth="1"/>
     <col min="13057" max="13057" width="13" customWidth="1"/>
-    <col min="13058" max="13058" width="28.140625" customWidth="1"/>
+    <col min="13058" max="13058" width="28.1388888888889" customWidth="1"/>
     <col min="13313" max="13313" width="13" customWidth="1"/>
-    <col min="13314" max="13314" width="28.140625" customWidth="1"/>
+    <col min="13314" max="13314" width="28.1388888888889" customWidth="1"/>
     <col min="13569" max="13569" width="13" customWidth="1"/>
-    <col min="13570" max="13570" width="28.140625" customWidth="1"/>
+    <col min="13570" max="13570" width="28.1388888888889" customWidth="1"/>
     <col min="13825" max="13825" width="13" customWidth="1"/>
-    <col min="13826" max="13826" width="28.140625" customWidth="1"/>
+    <col min="13826" max="13826" width="28.1388888888889" customWidth="1"/>
     <col min="14081" max="14081" width="13" customWidth="1"/>
-    <col min="14082" max="14082" width="28.140625" customWidth="1"/>
+    <col min="14082" max="14082" width="28.1388888888889" customWidth="1"/>
     <col min="14337" max="14337" width="13" customWidth="1"/>
-    <col min="14338" max="14338" width="28.140625" customWidth="1"/>
+    <col min="14338" max="14338" width="28.1388888888889" customWidth="1"/>
     <col min="14593" max="14593" width="13" customWidth="1"/>
-    <col min="14594" max="14594" width="28.140625" customWidth="1"/>
+    <col min="14594" max="14594" width="28.1388888888889" customWidth="1"/>
     <col min="14849" max="14849" width="13" customWidth="1"/>
-    <col min="14850" max="14850" width="28.140625" customWidth="1"/>
+    <col min="14850" max="14850" width="28.1388888888889" customWidth="1"/>
     <col min="15105" max="15105" width="13" customWidth="1"/>
-    <col min="15106" max="15106" width="28.140625" customWidth="1"/>
+    <col min="15106" max="15106" width="28.1388888888889" customWidth="1"/>
     <col min="15361" max="15361" width="13" customWidth="1"/>
-    <col min="15362" max="15362" width="28.140625" customWidth="1"/>
+    <col min="15362" max="15362" width="28.1388888888889" customWidth="1"/>
     <col min="15617" max="15617" width="13" customWidth="1"/>
-    <col min="15618" max="15618" width="28.140625" customWidth="1"/>
+    <col min="15618" max="15618" width="28.1388888888889" customWidth="1"/>
     <col min="15873" max="15873" width="13" customWidth="1"/>
-    <col min="15874" max="15874" width="28.140625" customWidth="1"/>
+    <col min="15874" max="15874" width="28.1388888888889" customWidth="1"/>
     <col min="16129" max="16129" width="13" customWidth="1"/>
-    <col min="16130" max="16130" width="28.140625" customWidth="1"/>
+    <col min="16130" max="16130" width="28.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,206 +1326,252 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species.xlsx
+++ b/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species.xlsx
@@ -44,6 +44,9 @@
     <t>Sci_Name</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Phyl_trol</t>
   </si>
   <si>
@@ -152,7 +155,7 @@
     <t>Камышевка-барсучок</t>
   </si>
   <si>
-    <t>Acroloscopus schoenobaenus</t>
+    <t>Acrocephalus schoenobaenus</t>
   </si>
   <si>
     <t>Hipp_cali</t>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>Iduna caligata</t>
-  </si>
-  <si>
-    <t>раньше была Hippolais caligata</t>
   </si>
   <si>
     <t>Fice_parv</t>
@@ -381,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,12 +522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,73 +759,73 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1157,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A1" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1312,7 +1294,7 @@
     <col min="16130" max="16130" width="28.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,198 +1310,231 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
         <v>45</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1542,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1535,8 +1550,11 @@
       <c r="E13" t="s">
         <v>49</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1552,8 +1570,11 @@
       <c r="E14" t="s">
         <v>52</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -1561,13 +1582,16 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>55</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
